--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Fall.120319-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Fall.120319-2.xlsx_with_dialog_acts.xlsx
@@ -551,12 +551,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2873,12 +2873,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2915,12 +2915,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3333,12 +3333,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4143,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4223,12 +4223,12 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4493,12 +4493,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6219,12 +6219,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6295,12 +6295,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6755,12 +6755,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10043,12 +10043,12 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11381,12 +11381,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11419,12 +11419,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11955,12 +11955,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12221,12 +12221,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12449,12 +12449,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12563,12 +12563,12 @@
       <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12639,12 +12639,12 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12715,12 +12715,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12753,12 +12753,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -13445,12 +13445,12 @@
       <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13559,12 +13559,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14205,12 +14205,12 @@
       <c r="H360" t="inlineStr"/>
       <c r="I360" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15041,12 +15041,12 @@
       <c r="H382" t="inlineStr"/>
       <c r="I382" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J382" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15079,12 +15079,12 @@
       <c r="H383" t="inlineStr"/>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15155,12 +15155,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15307,12 +15307,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15459,12 +15459,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16067,12 +16067,12 @@
       <c r="H409" t="inlineStr"/>
       <c r="I409" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16485,12 +16485,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17169,12 +17169,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17207,12 +17207,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17283,12 +17283,12 @@
       </c>
       <c r="I441" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17435,12 +17435,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17473,12 +17473,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17511,12 +17511,12 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17587,12 +17587,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17815,12 +17815,12 @@
       <c r="H455" t="inlineStr"/>
       <c r="I455" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
